--- a/dthreads/figure/overhead.xlsx
+++ b/dthreads/figure/overhead.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12720" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="omega data" sheetId="19" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <definedName name="all_data" localSheetId="1">'codemonkey data'!$A$35:$L$99</definedName>
     <definedName name="all_data" localSheetId="0">'omega data'!$A$35:$L$99</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
   <si>
     <t>Benchmark</t>
   </si>
@@ -156,54 +156,18 @@
   <si>
     <t>2 Cores</t>
   </si>
-  <si>
-    <t>Tool</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>hist</t>
-  </si>
-  <si>
-    <t>swap</t>
-  </si>
-  <si>
-    <t>m.mul</t>
-  </si>
-  <si>
-    <t>r.index</t>
-  </si>
-  <si>
-    <t>s.match</t>
-  </si>
-  <si>
-    <t>w.count</t>
-  </si>
-  <si>
-    <t>l.reg</t>
-  </si>
-  <si>
-    <t>b.schol</t>
-  </si>
-  <si>
-    <t>s.clust</t>
-  </si>
-  <si>
-    <t>Cores</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,22 +254,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -327,27 +277,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFFFFFFF"/>
@@ -358,17 +294,8 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="18"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -394,9 +321,7 @@
           <c:y val="0.00555555555555555"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -412,143 +337,9 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>CoreDet</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>overhead!$A$2:$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>PHOENIX</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>histogram</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>kmeans</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>linear_regression</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>matrix_multiply</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pca</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>reverse_index</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>string_match</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>word_count</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>PARSEC</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>blackscholes</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>canneal</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>dedup</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>ferret</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>swaptions</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>hmean</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>overhead!$B$2:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="1">
-                  <c:v>4.066666666284577</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.198024503712047</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.562519014275307</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.63959883532288</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.915611690772123</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.813600485608038</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.740885927145012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.764273601059806</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.117099135067906</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.415246098439376</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.343696027784322</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.116411534353863</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.233226837060703</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.433532934131736</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.576183310915307</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>dthreads</c:v>
           </c:tx>
@@ -561,7 +352,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>overhead!$A$2:$A$19</c:f>
@@ -671,6 +461,137 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.742559772961321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CoreDet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>overhead!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>PHOENIX</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>matrix_multiply</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pca</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PARSEC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>hmean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>overhead!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="1">
+                  <c:v>4.066666666284577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.198024503712047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.562519014275307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.63959883532288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.915611690772123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.813600485608038</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.740885927145012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.764273601059806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.117099135067906</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.415246098439376</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.343696027784322</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.116411534353863</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.233226837060703</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.433532934131736</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.576183310915307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -693,7 +614,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>overhead!$A$2:$A$19</c:f>
@@ -808,27 +728,15 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="541414104"/>
-        <c:axId val="541417080"/>
+        <c:axId val="301772456"/>
+        <c:axId val="308825208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="541414104"/>
+        <c:axId val="301772456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -840,21 +748,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541417080"/>
+        <c:crossAx val="308825208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="541417080"/>
+        <c:axId val="308825208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
           <c:min val="0.0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -892,13 +798,10 @@
               <c:y val="0.0419438976377953"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541414104"/>
+        <c:crossAx val="301772456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -916,7 +819,6 @@
           <c:h val="0.352291666666667"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -930,7 +832,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -960,17 +861,8 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="18"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -996,9 +888,7 @@
           <c:y val="0.00555555555555555"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1014,7 +904,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1032,7 +921,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>components!$A$2:$A$19</c:f>
@@ -1155,9 +1043,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1165,7 +1052,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>components!$A$2:$A$19</c:f>
@@ -1295,7 +1181,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>components!$A$2:$A$19</c:f>
@@ -1410,27 +1295,15 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="541514328"/>
-        <c:axId val="541517336"/>
+        <c:axId val="301547464"/>
+        <c:axId val="301317848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="541514328"/>
+        <c:axId val="301547464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1442,21 +1315,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541517336"/>
+        <c:crossAx val="301317848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="541517336"/>
+        <c:axId val="301317848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5.0"/>
+          <c:max val="6.0"/>
           <c:min val="0.0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1494,16 +1365,13 @@
               <c:y val="0.0419438976377953"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541514328"/>
+        <c:crossAx val="301547464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1.0"/>
+        <c:majorUnit val="2.0"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1513,12 +1381,11 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.902264091988501"/>
-          <c:y val="0.158475503062117"/>
+          <c:y val="0.248753280839895"/>
           <c:w val="0.0977359080114985"/>
           <c:h val="0.469722222222222"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1532,7 +1399,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1562,17 +1428,8 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="18"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1598,9 +1455,7 @@
           <c:y val="0.00555555555555555"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1609,32 +1464,520 @@
           <c:yMode val="edge"/>
           <c:x val="0.0681432008498938"/>
           <c:y val="0.137777340332458"/>
-          <c:w val="0.921810711161105"/>
-          <c:h val="0.533275918635171"/>
+          <c:w val="0.834120891138608"/>
+          <c:h val="0.540220472440945"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>scalability!$M$1</c:f>
+              <c:f>scalability!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Cores</c:v>
-                </c:pt>
+                  <c:v>dthreads (4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="tx1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="6350">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>scalability!$A$2:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>PHOENIX</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>matrix_multiply</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pca</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PARSEC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>hmean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scalability!$E$2:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>1.975378787372225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.777210717443428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.018038331262823</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.537165557832625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.690629621811496</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.463826232283802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.99619651344034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.717629629671375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.71053552678334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.178936170212766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.413843888083095</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.397089947085279</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.785127478739381</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>1.716286139794515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scalability!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dthreads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln w="6350">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>scalability!$A$2:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>PHOENIX</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>matrix_multiply</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pca</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PARSEC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>hmean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scalability!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>3.751798560679685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.26123367849249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.916849015151119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.074811034299374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.876253004279266</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.818012035673947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.946115288033046</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.965217391461946</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.643407707947305</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.416049067240808</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.375900659218151</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.779312668469319</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.978219696889329</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>2.510512112805445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scalability!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>scalability!$A$2:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>PHOENIX</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>matrix_multiply</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pca</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PARSEC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>hmean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scalability!$D$2:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scalability!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CoreDet (4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="6350">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>scalability!$A$2:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>PHOENIX</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>matrix_multiply</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pca</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PARSEC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>hmean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scalability!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>1.462814711736389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.571779869410975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.307863945594376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.480541033945731</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.789115367264077</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.140213934619113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.000571833774792</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.989863619594507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.800660910348577</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.427950310543926</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.119780159382688</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.316704496403657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scalability!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CoreDet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="6350">
@@ -1642,336 +1985,341 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>scalability!$K$2:$L$43</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="42"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>p</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>hist</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>kmeans</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>l.reg</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>m.mul</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>pca</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>r.index</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>s.match</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>w.count</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>b.schol</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>dedup</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>ferret</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>s.clust</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>swap</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>hmean</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>scalability!$A$2:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>PHOENIX</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>matrix_multiply</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pca</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PARSEC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>hmean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>scalability!$M$2:$M$43</c:f>
+              <c:f>scalability!$C$2:$C$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>1.462814711736389</c:v>
-                </c:pt>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>1.975378787372225</c:v>
+                  <c:v>1.766568586213294</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.787202380986878</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>1.571779869410975</c:v>
+                  <c:v>2.483659175340764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.559709241965143</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.777210717443428</c:v>
+                  <c:v>1.877611154964882</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.917693617877968</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>1.307863945594376</c:v>
+                  <c:v>2.779044789354724</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.255850979096085</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.018038331262823</c:v>
+                  <c:v>0.99565266872663</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.408060453399609</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>1.480541033945731</c:v>
+                  <c:v>1.042786069644474</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.537165557832625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.539353293411107</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>1.789115367264077</c:v>
+                  <c:v>2.682866785756447</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.690629621811496</c:v>
+                  <c:v>1.604046746896913</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.704413217711752</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>1.140213934619113</c:v>
+                  <c:v>1.205528732365805</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.463826232283802</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.42590673567323</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00">
-                  <c:v>1.000571833774792</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.99619651344034</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.418641037090289</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.00">
-                  <c:v>0.989863619594507</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.717629629671375</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.789848344190527</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.00">
-                  <c:v>1.800660910348577</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.71053552678334</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.714997423116303</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.178936170212766</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.013004791091495</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.413843888083095</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.294346137267364</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="0.00">
-                  <c:v>1.427950310543926</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.397089947085279</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.518703241911425</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0.00">
-                  <c:v>1.119780159382688</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.785127478739381</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.9860800000128</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="0.00">
-                  <c:v>1.316704496403657</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="0.00">
-                  <c:v>1.716286139794515</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="0.00">
-                  <c:v>1.269820657946509</c:v>
+                  <c:v>1.552016716125964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>scalability!$N$1</c:f>
+              <c:f>scalability!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>scalability!$A$2:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>PHOENIX</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>matrix_multiply</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pca</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PARSEC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>hmean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scalability!$G$2:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scalability!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8 Cores</c:v>
+                  <c:v>pthreads (4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="6350">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>scalability!$A$2:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>PHOENIX</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>matrix_multiply</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pca</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PARSEC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>hmean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scalability!$H$2:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>1.787202380986878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.917693617877968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.408060453399609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.539353293411107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.704413217711752</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.42590673567323</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.418641037090289</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.789848344190527</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.714997423116303</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.013004791091495</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.294346137267364</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.518703241911425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9860800000128</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>1.269820657946509</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scalability!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pthreads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="6350">
@@ -1979,341 +2327,123 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>scalability!$K$2:$L$43</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="42"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>p</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>C</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>d</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>p</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>hist</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>kmeans</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>l.reg</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>m.mul</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>pca</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>r.index</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>s.match</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>w.count</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>b.schol</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>dedup</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>ferret</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>s.clust</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>swap</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>hmean</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>scalability!$A$2:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>PHOENIX</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>matrix_multiply</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pca</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PARSEC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>hmean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>scalability!$N$2:$N$43</c:f>
+              <c:f>scalability!$I$2:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>1.766568586213294</c:v>
-                </c:pt>
+                <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>3.751798560679685</c:v>
+                  <c:v>2.052991452754325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.052991452754325</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>2.483659175340764</c:v>
+                  <c:v>3.63576787917078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.542135686043791</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.26123367849249</c:v>
+                  <c:v>2.079197670651903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.63576787917078</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>1.559709241965143</c:v>
+                  <c:v>1.894624443227995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.670916818360632</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.916849015151119</c:v>
+                  <c:v>2.48804390436363</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.542135686043791</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>1.877611154964882</c:v>
+                  <c:v>3.269078575574374</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.074811034299374</c:v>
+                  <c:v>2.656819693920656</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.079197670651903</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>2.779044789354724</c:v>
+                  <c:v>1.704087507196856</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.067639729432538</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.876253004279266</c:v>
+                  <c:v>2.223642172553172</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.894624443227995</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>1.255850979096085</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.818012035673947</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.670916818360632</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00">
-                  <c:v>0.99565266872663</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.946115288033046</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.48804390436363</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.00">
-                  <c:v>1.042786069644474</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.965217391461946</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.269078575574374</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.00">
-                  <c:v>2.682866785756447</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.643407707947305</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.656819693920656</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.416049067240808</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.704087507196856</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="0.00">
-                  <c:v>1.000533059172949</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.375900659218151</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.067639729432538</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="0.00">
-                  <c:v>1.604046746896913</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.779312668469319</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.223642172553172</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0.00">
-                  <c:v>1.205528732365805</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.978219696889329</c:v>
-                </c:pt>
-                <c:pt idx="38">
                   <c:v>3.716467065892215</c:v>
                 </c:pt>
-                <c:pt idx="39" formatCode="0.00">
-                  <c:v>1.483859365582268</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="0.00">
-                  <c:v>2.510512112805445</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="0.00">
+                <c:pt idx="16" formatCode="0.00">
                   <c:v>1.724047065933793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="541574632"/>
-        <c:axId val="541577544"/>
+        <c:axId val="301756808"/>
+        <c:axId val="301383096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="541574632"/>
+        <c:axId val="301756808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2325,23 +2455,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541577544"/>
+        <c:crossAx val="301383096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="75"/>
-        <c:tickLblSkip val="1"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
+        <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="541577544"/>
+        <c:axId val="301383096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4.0"/>
+          <c:max val="5.0"/>
           <c:min val="0.0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2366,8 +2492,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="900"/>
-                  <a:t>speedup over two cores</a:t>
+                  <a:t>runtime relative to 2</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" baseline="0"/>
+                  <a:t> cores</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="900"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2375,35 +2506,51 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00609928388581057"/>
-              <c:y val="0.0627772309711286"/>
+              <c:x val="0.00198412698412698"/>
+              <c:y val="0.0419438976377953"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541574632"/>
-        <c:crossesAt val="1.0"/>
+        <c:crossAx val="301756808"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.419091676040495"/>
-          <c:y val="0.889444444444444"/>
-          <c:w val="0.170699912510936"/>
-          <c:h val="0.110555555555556"/>
+          <c:x val="0.902264091988501"/>
+          <c:y val="0.214031058617673"/>
+          <c:w val="0.0934523809523809"/>
+          <c:h val="0.352291666666667"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2417,983 +2564,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Times"/>
-          <a:cs typeface="Times"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Scalability</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.442663104611923"/>
-          <c:y val="0.00555555555555555"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0681432008498938"/>
-          <c:y val="0.137777340332458"/>
-          <c:w val="0.921810711161105"/>
-          <c:h val="0.533275918635171"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>scalability!$R$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CoreDet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>scalability!$P$2:$Q$29</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="28"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>8</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>hist</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>kmeans</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>l.reg</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>m.mul</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>pca</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>r.index</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>s.match</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>w.count</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>b.schol</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>dedup</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>ferret</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>s.clust</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>swap</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>hmean</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>scalability!$R$2:$R$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>1.462814711736389</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.766568586213294</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.571779869410975</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.483659175340764</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.307863945594376</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.559709241965143</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.480541033945731</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.877611154964882</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.789115367264077</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.779044789354724</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.140213934619113</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.255850979096085</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.000571833774792</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.99565266872663</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.989863619594507</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.042786069644474</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.800660910348577</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.682866785756447</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.000533059172949</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.427950310543926</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.604046746896913</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.119780159382688</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.205528732365805</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.316704496403657</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.483859365582268</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>scalability!$S$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dthreads</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>scalability!$P$2:$Q$29</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="28"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>8</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>hist</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>kmeans</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>l.reg</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>m.mul</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>pca</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>r.index</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>s.match</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>w.count</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>b.schol</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>dedup</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>ferret</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>s.clust</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>swap</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>hmean</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>scalability!$S$2:$S$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>1.975378787372225</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.751798560679685</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.777210717443428</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.26123367849249</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.018038331262823</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.916849015151119</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.537165557832625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.074811034299374</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.690629621811496</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.876253004279266</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.463826232283802</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.818012035673947</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.99619651344034</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.946115288033046</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.717629629671375</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.965217391461946</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.71053552678334</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.643407707947305</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.178936170212766</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.416049067240808</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.413843888083095</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.375900659218151</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.397089947085279</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.779312668469319</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.785127478739381</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.978219696889329</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="0.00">
-                  <c:v>1.716286139794515</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0.00">
-                  <c:v>2.510512112805445</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>scalability!$T$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pthreads</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>scalability!$P$2:$Q$29</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="28"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>8</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>hist</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>kmeans</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>l.reg</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>m.mul</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>pca</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>r.index</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>s.match</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>w.count</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>b.schol</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>dedup</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>ferret</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>s.clust</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>swap</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>hmean</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>scalability!$T$2:$T$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>1.787202380986878</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.052991452754325</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.917693617877968</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.63576787917078</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.408060453399609</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.542135686043791</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.539353293411107</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.079197670651903</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.704413217711752</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.894624443227995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.42590673567323</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.670916818360632</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.418641037090289</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.48804390436363</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.789848344190527</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.269078575574374</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.714997423116303</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.656819693920656</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.013004791091495</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.704087507196856</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.294346137267364</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.067639729432538</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.518703241911425</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.223642172553172</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.9860800000128</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.716467065892215</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="0.00">
-                  <c:v>1.269820657946509</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0.00">
-                  <c:v>1.724047065933793</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="116"/>
-        <c:axId val="541625608"/>
-        <c:axId val="541628616"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="541625608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="541628616"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="75"/>
-        <c:tickLblSkip val="1"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="541628616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="4.0"/>
-          <c:min val="0.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900"/>
-                  <a:t>speedup over two cores</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.00609923759530059"/>
-              <c:y val="0.0836105643044619"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541625608"/>
-        <c:crossesAt val="1.0"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1.0"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.363536120484939"/>
-          <c:y val="0.8825"/>
-          <c:w val="0.27685336207974"/>
-          <c:h val="0.117430555555556"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -3431,8 +2601,8 @@
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -3460,16 +2630,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3498,14 +2668,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3522,38 +2692,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3887,14 +3025,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -5049,7 +4187,7 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -5057,14 +4195,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -6611,8 +5749,9 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -6620,14 +5759,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
@@ -6937,7 +6076,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -6945,14 +6084,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
@@ -7326,11 +6465,12 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -7338,20 +6478,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7373,72 +6512,13 @@
       <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="14">
-        <f>B3</f>
-        <v>1.4628147117363888</v>
-      </c>
-      <c r="N2" s="14">
-        <f>C3</f>
-        <v>1.7665685862132938</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2">
-        <v>4</v>
-      </c>
-      <c r="R2" s="14">
-        <f>B3</f>
-        <v>1.4628147117363888</v>
-      </c>
-      <c r="S2">
-        <f>E3</f>
-        <v>1.9753787873722253</v>
-      </c>
-      <c r="T2">
-        <f>H3</f>
-        <v>1.787202380986878</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="str">
         <f>'codemonkey data'!A4</f>
         <v>histogram</v>
@@ -7467,34 +6547,8 @@
         <f>'codemonkey data'!D40/'codemonkey data'!D4</f>
         <v>2.0529914527543247</v>
       </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3">
-        <f>E3</f>
-        <v>1.9753787873722253</v>
-      </c>
-      <c r="N3">
-        <f>F3</f>
-        <v>3.7517985606796849</v>
-      </c>
-      <c r="Q3">
-        <v>8</v>
-      </c>
-      <c r="R3" s="14">
-        <f>C3</f>
-        <v>1.7665685862132938</v>
-      </c>
-      <c r="S3">
-        <f>F3</f>
-        <v>3.7517985606796849</v>
-      </c>
-      <c r="T3">
-        <f>I3</f>
-        <v>2.0529914527543247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="str">
         <f>'codemonkey data'!A5</f>
         <v>kmeans</v>
@@ -7523,37 +6577,8 @@
         <f>'codemonkey data'!D41/'codemonkey data'!D5</f>
         <v>3.6357678791707797</v>
       </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4">
-        <f>H3</f>
-        <v>1.787202380986878</v>
-      </c>
-      <c r="N4">
-        <f>I3</f>
-        <v>2.0529914527543247</v>
-      </c>
-      <c r="P4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4">
-        <v>4</v>
-      </c>
-      <c r="R4" s="14">
-        <f>B4</f>
-        <v>1.5717798694109755</v>
-      </c>
-      <c r="S4">
-        <f>E4</f>
-        <v>1.7772107174434282</v>
-      </c>
-      <c r="T4">
-        <f>H4</f>
-        <v>1.9176936178779682</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="str">
         <f>'codemonkey data'!A6</f>
         <v>linear_regression</v>
@@ -7582,37 +6607,8 @@
         <f>'codemonkey data'!D42/'codemonkey data'!D6</f>
         <v>0.54213568604379148</v>
       </c>
-      <c r="K5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="14">
-        <f>B4</f>
-        <v>1.5717798694109755</v>
-      </c>
-      <c r="N5" s="14">
-        <f>C4</f>
-        <v>2.483659175340764</v>
-      </c>
-      <c r="Q5">
-        <v>8</v>
-      </c>
-      <c r="R5" s="14">
-        <f>C4</f>
-        <v>2.483659175340764</v>
-      </c>
-      <c r="S5">
-        <f>F4</f>
-        <v>3.26123367849249</v>
-      </c>
-      <c r="T5">
-        <f>I4</f>
-        <v>3.6357678791707797</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="str">
         <f>'codemonkey data'!A7</f>
         <v>matrix_multiply</v>
@@ -7641,37 +6637,8 @@
         <f>'codemonkey data'!D43/'codemonkey data'!D7</f>
         <v>2.0791976706519031</v>
       </c>
-      <c r="L6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6">
-        <f>E4</f>
-        <v>1.7772107174434282</v>
-      </c>
-      <c r="N6">
-        <f>F4</f>
-        <v>3.26123367849249</v>
-      </c>
-      <c r="P6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-      <c r="R6" s="14">
-        <f>B5</f>
-        <v>1.3078639455943764</v>
-      </c>
-      <c r="S6">
-        <f>E5</f>
-        <v>2.0180383312628232</v>
-      </c>
-      <c r="T6">
-        <f>H5</f>
-        <v>0.40806045339960856</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="str">
         <f>'codemonkey data'!A8</f>
         <v>pca</v>
@@ -7700,34 +6667,8 @@
         <f>'codemonkey data'!D44/'codemonkey data'!D8</f>
         <v>1.8946244432279953</v>
       </c>
-      <c r="L7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7">
-        <f>H4</f>
-        <v>1.9176936178779682</v>
-      </c>
-      <c r="N7">
-        <f>I4</f>
-        <v>3.6357678791707797</v>
-      </c>
-      <c r="Q7">
-        <v>8</v>
-      </c>
-      <c r="R7" s="14">
-        <f>C5</f>
-        <v>1.5597092419651426</v>
-      </c>
-      <c r="S7">
-        <f>F5</f>
-        <v>3.9168490151511186</v>
-      </c>
-      <c r="T7">
-        <f>I5</f>
-        <v>0.54213568604379148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="str">
         <f>'codemonkey data'!A9</f>
         <v>reverse_index</v>
@@ -7756,40 +6697,8 @@
         <f>'codemonkey data'!D45/'codemonkey data'!D9</f>
         <v>1.670916818360632</v>
       </c>
-      <c r="K8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="14">
-        <f>B5</f>
-        <v>1.3078639455943764</v>
-      </c>
-      <c r="N8" s="14">
-        <f>C5</f>
-        <v>1.5597092419651426</v>
-      </c>
-      <c r="P8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
-      <c r="R8" s="14">
-        <f>B6</f>
-        <v>1.4805410339457306</v>
-      </c>
-      <c r="S8">
-        <f>E6</f>
-        <v>1.5371655578326247</v>
-      </c>
-      <c r="T8">
-        <f>H6</f>
-        <v>1.5393532934111067</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="str">
         <f>'codemonkey data'!A10</f>
         <v>string_match</v>
@@ -7818,34 +6727,8 @@
         <f>'codemonkey data'!D46/'codemonkey data'!D10</f>
         <v>2.4880439043636295</v>
       </c>
-      <c r="L9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9">
-        <f>E5</f>
-        <v>2.0180383312628232</v>
-      </c>
-      <c r="N9">
-        <f>F5</f>
-        <v>3.9168490151511186</v>
-      </c>
-      <c r="Q9">
-        <v>8</v>
-      </c>
-      <c r="R9" s="14">
-        <f>C6</f>
-        <v>1.8776111549648824</v>
-      </c>
-      <c r="S9">
-        <f>F6</f>
-        <v>2.0748110342993735</v>
-      </c>
-      <c r="T9">
-        <f>I6</f>
-        <v>2.0791976706519031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="str">
         <f>'codemonkey data'!A11</f>
         <v>word_count</v>
@@ -7874,73 +6757,15 @@
         <f>'codemonkey data'!D47/'codemonkey data'!D11</f>
         <v>3.2690785755743743</v>
       </c>
-      <c r="L10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10">
-        <f>H5</f>
-        <v>0.40806045339960856</v>
-      </c>
-      <c r="N10">
-        <f>I5</f>
-        <v>0.54213568604379148</v>
-      </c>
-      <c r="P10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
-      </c>
-      <c r="R10" s="14">
-        <f>B7</f>
-        <v>1.7891153672640774</v>
-      </c>
-      <c r="S10">
-        <f>E7</f>
-        <v>1.6906296218114962</v>
-      </c>
-      <c r="T10">
-        <f>H7</f>
-        <v>1.7044132177117524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="K11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="14">
-        <f>B6</f>
-        <v>1.4805410339457306</v>
-      </c>
-      <c r="N11" s="14">
-        <f>C6</f>
-        <v>1.8776111549648824</v>
-      </c>
-      <c r="Q11">
-        <v>8</v>
-      </c>
-      <c r="R11" s="14">
-        <f>C7</f>
-        <v>2.7790447893547245</v>
-      </c>
-      <c r="S11">
-        <f>F7</f>
-        <v>1.876253004279266</v>
-      </c>
-      <c r="T11">
-        <f>I7</f>
-        <v>1.8946244432279953</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="str">
         <f>'codemonkey data'!A13</f>
         <v>blackscholes</v>
@@ -7969,37 +6794,8 @@
         <f>'codemonkey data'!D49/'codemonkey data'!D13</f>
         <v>2.6568196939206556</v>
       </c>
-      <c r="L12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12">
-        <f>E6</f>
-        <v>1.5371655578326247</v>
-      </c>
-      <c r="N12">
-        <f>F6</f>
-        <v>2.0748110342993735</v>
-      </c>
-      <c r="P12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12">
-        <v>4</v>
-      </c>
-      <c r="R12" s="14">
-        <f>B8</f>
-        <v>1.1402139346191134</v>
-      </c>
-      <c r="S12">
-        <f>E8</f>
-        <v>1.4638262322838016</v>
-      </c>
-      <c r="T12">
-        <f>H8</f>
-        <v>1.4259067356732305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="str">
         <f>'codemonkey data'!A15</f>
         <v>dedup</v>
@@ -8022,43 +6818,14 @@
         <f>'codemonkey data'!D51/'codemonkey data'!D15</f>
         <v>1.7040875071968564</v>
       </c>
-      <c r="L13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13">
-        <f>H6</f>
-        <v>1.5393532934111067</v>
-      </c>
-      <c r="N13">
-        <f>I6</f>
-        <v>2.0791976706519031</v>
-      </c>
-      <c r="Q13">
-        <v>8</v>
-      </c>
-      <c r="R13" s="14">
-        <f>C8</f>
-        <v>1.2558509790960848</v>
-      </c>
-      <c r="S13">
-        <f>F8</f>
-        <v>1.8180120356739471</v>
-      </c>
-      <c r="T13">
-        <f>I8</f>
-        <v>1.670916818360632</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="str">
         <f>'codemonkey data'!A16</f>
         <v>ferret</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="10">
-        <f>'codemonkey data'!B52/'codemonkey data'!B16</f>
-        <v>1.0005330591729493</v>
-      </c>
+      <c r="C14" s="10"/>
       <c r="E14">
         <f>'codemonkey data'!C52/'codemonkey data'!C34</f>
         <v>3.4138438880830946</v>
@@ -8075,40 +6842,8 @@
         <f>'codemonkey data'!D52/'codemonkey data'!D16</f>
         <v>1.0676397294325382</v>
       </c>
-      <c r="K14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="14">
-        <f>B7</f>
-        <v>1.7891153672640774</v>
-      </c>
-      <c r="N14" s="14">
-        <f>C7</f>
-        <v>2.7790447893547245</v>
-      </c>
-      <c r="P14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q14">
-        <v>4</v>
-      </c>
-      <c r="R14" s="14">
-        <f>B9</f>
-        <v>1.0005718337747922</v>
-      </c>
-      <c r="S14">
-        <f>E9</f>
-        <v>1.9961965134403403</v>
-      </c>
-      <c r="T14">
-        <f>H9</f>
-        <v>1.4186410370902889</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="str">
         <f>'codemonkey data'!A17</f>
         <v>streamcluster</v>
@@ -8137,34 +6872,8 @@
         <f>'codemonkey data'!D53/'codemonkey data'!D17</f>
         <v>2.2236421725531721</v>
       </c>
-      <c r="L15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15">
-        <f>E7</f>
-        <v>1.6906296218114962</v>
-      </c>
-      <c r="N15">
-        <f>F7</f>
-        <v>1.876253004279266</v>
-      </c>
-      <c r="Q15">
-        <v>8</v>
-      </c>
-      <c r="R15" s="14">
-        <f>C9</f>
-        <v>0.99565266872662972</v>
-      </c>
-      <c r="S15">
-        <f>F9</f>
-        <v>3.9461152880330461</v>
-      </c>
-      <c r="T15">
-        <f>I9</f>
-        <v>2.4880439043636295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="str">
         <f>'codemonkey data'!A18</f>
         <v>swaptions</v>
@@ -8193,70 +6902,12 @@
         <f>'codemonkey data'!D54/'codemonkey data'!D18</f>
         <v>3.7164670658922154</v>
       </c>
-      <c r="L16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16">
-        <f>H7</f>
-        <v>1.7044132177117524</v>
-      </c>
-      <c r="N16">
-        <f>I7</f>
-        <v>1.8946244432279953</v>
-      </c>
-      <c r="P16" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q16">
-        <v>4</v>
-      </c>
-      <c r="R16" s="14">
-        <f>B10</f>
-        <v>0.98986361959450742</v>
-      </c>
-      <c r="S16">
-        <f>E10</f>
-        <v>1.7176296296713756</v>
-      </c>
-      <c r="T16">
-        <f>H10</f>
-        <v>1.7898483441905273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
-      <c r="K17" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="14">
-        <f>B8</f>
-        <v>1.1402139346191134</v>
-      </c>
-      <c r="N17" s="14">
-        <f>C8</f>
-        <v>1.2558509790960848</v>
-      </c>
-      <c r="Q17">
-        <v>8</v>
-      </c>
-      <c r="R17" s="14">
-        <f>C10</f>
-        <v>1.0427860696444737</v>
-      </c>
-      <c r="S17">
-        <f>F10</f>
-        <v>2.965217391461946</v>
-      </c>
-      <c r="T17">
-        <f>I10</f>
-        <v>3.2690785755743743</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -8266,7 +6917,7 @@
       </c>
       <c r="C18" s="10">
         <f>HARMEAN(C3:C10,C12:C16)</f>
-        <v>1.4838593655822681</v>
+        <v>1.5520167161259644</v>
       </c>
       <c r="E18" s="10">
         <f>HARMEAN(E3:E10,E12:E16)</f>
@@ -8284,548 +6935,14 @@
         <f>HARMEAN(I3:I10,I12:I16)</f>
         <v>1.7240470659337934</v>
       </c>
-      <c r="L18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18">
-        <f>E8</f>
-        <v>1.4638262322838016</v>
-      </c>
-      <c r="N18">
-        <f>F8</f>
-        <v>1.8180120356739471</v>
-      </c>
-      <c r="P18" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q18">
-        <v>4</v>
-      </c>
-      <c r="R18" s="14">
-        <f>B12</f>
-        <v>1.8006609103485769</v>
-      </c>
-      <c r="S18">
-        <f>E12</f>
-        <v>1.7105355267833391</v>
-      </c>
-      <c r="T18">
-        <f>H12</f>
-        <v>1.7149974231163032</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="L19" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19">
-        <f>H8</f>
-        <v>1.4259067356732305</v>
-      </c>
-      <c r="N19">
-        <f>I8</f>
-        <v>1.670916818360632</v>
-      </c>
-      <c r="Q19">
-        <v>8</v>
-      </c>
-      <c r="R19" s="14">
-        <f>C12</f>
-        <v>2.6828667857564468</v>
-      </c>
-      <c r="S19">
-        <f>F12</f>
-        <v>2.643407707947306</v>
-      </c>
-      <c r="T19">
-        <f>I12</f>
-        <v>2.6568196939206556</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="K20" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" s="14">
-        <f>B9</f>
-        <v>1.0005718337747922</v>
-      </c>
-      <c r="N20" s="14">
-        <f>C9</f>
-        <v>0.99565266872662972</v>
-      </c>
-      <c r="P20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q20">
-        <v>4</v>
-      </c>
-      <c r="S20">
-        <f>E13</f>
-        <v>1.1789361702127659</v>
-      </c>
-      <c r="T20">
-        <f>H13</f>
-        <v>1.0130047910914945</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="L21" t="s">
-        <v>37</v>
-      </c>
-      <c r="M21">
-        <f>E9</f>
-        <v>1.9961965134403403</v>
-      </c>
-      <c r="N21">
-        <f>F9</f>
-        <v>3.9461152880330461</v>
-      </c>
-      <c r="Q21">
-        <v>8</v>
-      </c>
-      <c r="S21">
-        <f>F13</f>
-        <v>1.4160490672408084</v>
-      </c>
-      <c r="T21">
-        <f>I13</f>
-        <v>1.7040875071968564</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="L22" t="s">
-        <v>38</v>
-      </c>
-      <c r="M22">
-        <f>H9</f>
-        <v>1.4186410370902889</v>
-      </c>
-      <c r="N22">
-        <f>I9</f>
-        <v>2.4880439043636295</v>
-      </c>
-      <c r="P22" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22">
-        <v>4</v>
-      </c>
-      <c r="S22">
-        <f>E14</f>
-        <v>3.4138438880830946</v>
-      </c>
-      <c r="T22">
-        <f>H14</f>
-        <v>1.2943461372673644</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="K23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" s="14">
-        <f>B10</f>
-        <v>0.98986361959450742</v>
-      </c>
-      <c r="N23" s="14">
-        <f>C10</f>
-        <v>1.0427860696444737</v>
-      </c>
-      <c r="Q23">
-        <v>8</v>
-      </c>
-      <c r="R23" s="14">
-        <f>C14</f>
-        <v>1.0005330591729493</v>
-      </c>
-      <c r="S23">
-        <f>F14</f>
-        <v>3.3759006592181509</v>
-      </c>
-      <c r="T23">
-        <f>I14</f>
-        <v>1.0676397294325382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="L24" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24">
-        <f>E10</f>
-        <v>1.7176296296713756</v>
-      </c>
-      <c r="N24">
-        <f>F10</f>
-        <v>2.965217391461946</v>
-      </c>
-      <c r="P24" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q24">
-        <v>4</v>
-      </c>
-      <c r="R24" s="14">
-        <f>B15</f>
-        <v>1.4279503105439257</v>
-      </c>
-      <c r="S24">
-        <f>E15</f>
-        <v>1.3970899470852789</v>
-      </c>
-      <c r="T24">
-        <f>H15</f>
-        <v>1.5187032419114248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="L25" t="s">
-        <v>38</v>
-      </c>
-      <c r="M25">
-        <f>H10</f>
-        <v>1.7898483441905273</v>
-      </c>
-      <c r="N25">
-        <f>I10</f>
-        <v>3.2690785755743743</v>
-      </c>
-      <c r="Q25">
-        <v>8</v>
-      </c>
-      <c r="R25" s="14">
-        <f>C15</f>
-        <v>1.6040467468969126</v>
-      </c>
-      <c r="S25">
-        <f>F15</f>
-        <v>1.7793126684693188</v>
-      </c>
-      <c r="T25">
-        <f>I15</f>
-        <v>2.2236421725531721</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="K26" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" s="14">
-        <f>B12</f>
-        <v>1.8006609103485769</v>
-      </c>
-      <c r="N26" s="14">
-        <f>C12</f>
-        <v>2.6828667857564468</v>
-      </c>
-      <c r="P26" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q26">
-        <v>4</v>
-      </c>
-      <c r="R26" s="14">
-        <f>B16</f>
-        <v>1.1197801593826877</v>
-      </c>
-      <c r="S26">
-        <f>E16</f>
-        <v>1.7851274787393814</v>
-      </c>
-      <c r="T26">
-        <f>H16</f>
-        <v>1.9860800000127998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="L27" t="s">
-        <v>37</v>
-      </c>
-      <c r="M27">
-        <f>E12</f>
-        <v>1.7105355267833391</v>
-      </c>
-      <c r="N27">
-        <f>F12</f>
-        <v>2.643407707947306</v>
-      </c>
-      <c r="Q27">
-        <v>8</v>
-      </c>
-      <c r="R27" s="14">
-        <f>C16</f>
-        <v>1.2055287323658053</v>
-      </c>
-      <c r="S27">
-        <f>F16</f>
-        <v>3.9782196968893291</v>
-      </c>
-      <c r="T27">
-        <f>I16</f>
-        <v>3.7164670658922154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="L28" t="s">
-        <v>38</v>
-      </c>
-      <c r="M28">
-        <f>H12</f>
-        <v>1.7149974231163032</v>
-      </c>
-      <c r="N28">
-        <f>I12</f>
-        <v>2.6568196939206556</v>
-      </c>
-      <c r="P28" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q28">
-        <v>4</v>
-      </c>
-      <c r="R28" s="14">
-        <f>B18</f>
-        <v>1.3167044964036569</v>
-      </c>
-      <c r="S28" s="14">
-        <f>E18</f>
-        <v>1.7162861397945155</v>
-      </c>
-      <c r="T28" s="14">
-        <f>H18</f>
-        <v>1.2698206579465092</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="K29" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q29">
-        <v>8</v>
-      </c>
-      <c r="R29" s="14">
-        <f>C18</f>
-        <v>1.4838593655822681</v>
-      </c>
-      <c r="S29" s="14">
-        <f>F18</f>
-        <v>2.5105121128054453</v>
-      </c>
-      <c r="T29" s="14">
-        <f>I18</f>
-        <v>1.7240470659337934</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="L30" t="s">
-        <v>37</v>
-      </c>
-      <c r="M30">
-        <f>E13</f>
-        <v>1.1789361702127659</v>
-      </c>
-      <c r="N30">
-        <f>F13</f>
-        <v>1.4160490672408084</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="L31" t="s">
-        <v>38</v>
-      </c>
-      <c r="M31">
-        <f>H13</f>
-        <v>1.0130047910914945</v>
-      </c>
-      <c r="N31">
-        <f>I13</f>
-        <v>1.7040875071968564</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="K32" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" t="s">
-        <v>36</v>
-      </c>
-      <c r="N32" s="14">
-        <f>C14</f>
-        <v>1.0005330591729493</v>
-      </c>
-    </row>
-    <row r="33" spans="11:14">
-      <c r="L33" t="s">
-        <v>37</v>
-      </c>
-      <c r="M33">
-        <f>E14</f>
-        <v>3.4138438880830946</v>
-      </c>
-      <c r="N33">
-        <f>F14</f>
-        <v>3.3759006592181509</v>
-      </c>
-    </row>
-    <row r="34" spans="11:14">
-      <c r="L34" t="s">
-        <v>38</v>
-      </c>
-      <c r="M34">
-        <f>H14</f>
-        <v>1.2943461372673644</v>
-      </c>
-      <c r="N34">
-        <f>I14</f>
-        <v>1.0676397294325382</v>
-      </c>
-    </row>
-    <row r="35" spans="11:14">
-      <c r="K35" t="s">
-        <v>47</v>
-      </c>
-      <c r="L35" t="s">
-        <v>36</v>
-      </c>
-      <c r="M35" s="14">
-        <f>B15</f>
-        <v>1.4279503105439257</v>
-      </c>
-      <c r="N35" s="14">
-        <f>C15</f>
-        <v>1.6040467468969126</v>
-      </c>
-    </row>
-    <row r="36" spans="11:14">
-      <c r="L36" t="s">
-        <v>37</v>
-      </c>
-      <c r="M36">
-        <f>E15</f>
-        <v>1.3970899470852789</v>
-      </c>
-      <c r="N36">
-        <f>F15</f>
-        <v>1.7793126684693188</v>
-      </c>
-    </row>
-    <row r="37" spans="11:14">
-      <c r="L37" t="s">
-        <v>38</v>
-      </c>
-      <c r="M37">
-        <f>H15</f>
-        <v>1.5187032419114248</v>
-      </c>
-      <c r="N37">
-        <f>I15</f>
-        <v>2.2236421725531721</v>
-      </c>
-    </row>
-    <row r="38" spans="11:14">
-      <c r="K38" t="s">
-        <v>40</v>
-      </c>
-      <c r="L38" t="s">
-        <v>36</v>
-      </c>
-      <c r="M38" s="14">
-        <f>B16</f>
-        <v>1.1197801593826877</v>
-      </c>
-      <c r="N38" s="14">
-        <f>C16</f>
-        <v>1.2055287323658053</v>
-      </c>
-    </row>
-    <row r="39" spans="11:14">
-      <c r="L39" t="s">
-        <v>37</v>
-      </c>
-      <c r="M39">
-        <f>E16</f>
-        <v>1.7851274787393814</v>
-      </c>
-      <c r="N39">
-        <f>F16</f>
-        <v>3.9782196968893291</v>
-      </c>
-    </row>
-    <row r="40" spans="11:14">
-      <c r="L40" t="s">
-        <v>38</v>
-      </c>
-      <c r="M40">
-        <f>H16</f>
-        <v>1.9860800000127998</v>
-      </c>
-      <c r="N40">
-        <f>I16</f>
-        <v>3.7164670658922154</v>
-      </c>
-    </row>
-    <row r="41" spans="11:14">
-      <c r="K41" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" t="s">
-        <v>36</v>
-      </c>
-      <c r="M41" s="14">
-        <f>B18</f>
-        <v>1.3167044964036569</v>
-      </c>
-      <c r="N41" s="14">
-        <f>C18</f>
-        <v>1.4838593655822681</v>
-      </c>
-    </row>
-    <row r="42" spans="11:14">
-      <c r="L42" t="s">
-        <v>37</v>
-      </c>
-      <c r="M42" s="14">
-        <f>E18</f>
-        <v>1.7162861397945155</v>
-      </c>
-      <c r="N42" s="14">
-        <f>F18</f>
-        <v>2.5105121128054453</v>
-      </c>
-    </row>
-    <row r="43" spans="11:14">
-      <c r="L43" t="s">
-        <v>38</v>
-      </c>
-      <c r="M43" s="14">
-        <f>H18</f>
-        <v>1.2698206579465092</v>
-      </c>
-      <c r="N43" s="14">
-        <f>I18</f>
-        <v>1.7240470659337934</v>
-      </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
